--- a/sistema_frequenciaRH_site/backend/nome-servidores.xlsx
+++ b/sistema_frequenciaRH_site/backend/nome-servidores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70352867213\projetos-sejusc\SEJUSC\sistema_frequenciaRH_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6F79B-E7A0-4548-B8C8-B0196C6637B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E88C9F-AE78-4C21-9375-4533A609023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
     <t>HORARIO</t>
   </si>
   <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
-    <t>SAIDA</t>
-  </si>
-  <si>
     <t>GABINETE SECEX</t>
   </si>
   <si>
@@ -2119,7 +2113,13 @@
     <t>FERIASINICIO</t>
   </si>
   <si>
-    <t>FERIASTERMINO</t>
+    <t>HORARIOENTRADA</t>
+  </si>
+  <si>
+    <t>HORARIOSAIDA</t>
+  </si>
+  <si>
+    <t>FERIASFINAL</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2504,7 @@
   <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,8 +2515,8 @@
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -2530,25 +2530,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>697</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>698</v>
       </c>
       <c r="I1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J1" t="s">
         <v>699</v>
@@ -2556,19 +2556,19 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
         <v>355</v>
       </c>
-      <c r="B2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" t="s">
-        <v>357</v>
-      </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3">
         <v>1.3339814814814814</v>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3">
         <v>1.3339814814814814</v>
@@ -2602,19 +2602,19 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3">
         <v>1.3339814814814814</v>
@@ -2625,19 +2625,19 @@
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
         <v>475</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="C5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" t="s">
-        <v>478</v>
-      </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3">
         <v>1.3339814814814814</v>
@@ -2648,19 +2648,19 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
         <v>264</v>
       </c>
-      <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
-      </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3">
         <v>1.3339814814814814</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" t="s">
         <v>379</v>
       </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" t="s">
-        <v>381</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3">
         <v>1.3339814814814814</v>
@@ -2691,22 +2691,23 @@
       <c r="H7" s="3">
         <v>1.7089814814814814</v>
       </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" t="s">
         <v>548</v>
       </c>
-      <c r="B8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" t="s">
-        <v>550</v>
-      </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3">
         <v>1.3339814814814814</v>
@@ -2717,19 +2718,19 @@
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3">
         <v>1.3339814814814814</v>
@@ -2741,19 +2742,19 @@
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3">
         <v>1.3339814814814814</v>
@@ -2764,19 +2765,19 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3">
         <v>1.3339814814814814</v>
@@ -2787,19 +2788,19 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>1.3339814814814814</v>
@@ -2810,19 +2811,19 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3">
         <v>1.3339814814814814</v>
@@ -2839,19 +2840,19 @@
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>1.3339814814814814</v>
@@ -2862,19 +2863,19 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>278</v>
       </c>
-      <c r="C15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" t="s">
-        <v>280</v>
-      </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3">
         <v>1.3339814814814814</v>
@@ -2885,19 +2886,19 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3">
         <v>1.3339814814814814</v>
@@ -2908,19 +2909,19 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
         <v>255</v>
       </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3">
         <v>1.3339814814814814</v>
@@ -2931,19 +2932,19 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
         <v>190</v>
       </c>
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3">
         <v>1.3339814814814814</v>
@@ -2954,19 +2955,19 @@
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
         <v>181</v>
       </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3">
         <v>1.3339814814814814</v>
@@ -2977,19 +2978,19 @@
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>1.3339814814814814</v>
@@ -3000,19 +3001,19 @@
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" t="s">
         <v>307</v>
       </c>
-      <c r="C21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" t="s">
-        <v>309</v>
-      </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="3">
         <v>1.3339814814814814</v>
@@ -3029,19 +3030,19 @@
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>1.3339814814814814</v>
@@ -3052,19 +3053,19 @@
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3">
         <v>1.3339814814814814</v>
@@ -3075,19 +3076,19 @@
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C24" t="s">
         <v>453</v>
       </c>
-      <c r="B24" t="s">
-        <v>454</v>
-      </c>
-      <c r="C24" t="s">
-        <v>455</v>
-      </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>1.3339814814814814</v>
@@ -3098,19 +3099,19 @@
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3">
         <v>1.3339814814814814</v>
@@ -3121,19 +3122,19 @@
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3">
         <v>1.3339814814814814</v>
@@ -3144,19 +3145,19 @@
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3">
         <v>1.3339814814814814</v>
@@ -3167,19 +3168,19 @@
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="3">
         <v>1.3339814814814814</v>
@@ -3190,19 +3191,19 @@
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" t="s">
         <v>503</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>504</v>
-      </c>
-      <c r="C29" t="s">
-        <v>505</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>506</v>
       </c>
       <c r="G29" s="3">
         <v>1.7923148148148149</v>
@@ -3213,19 +3214,19 @@
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="3">
         <v>1.3339814814814814</v>
@@ -3242,19 +3243,19 @@
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C31" t="s">
         <v>572</v>
       </c>
-      <c r="B31" t="s">
-        <v>573</v>
-      </c>
-      <c r="C31" t="s">
-        <v>574</v>
-      </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="3">
         <v>1.3339814814814814</v>
@@ -3271,19 +3272,19 @@
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>1.3339814814814814</v>
@@ -3294,19 +3295,19 @@
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="3">
         <v>1.3339814814814814</v>
@@ -3317,19 +3318,19 @@
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
         <v>1.3339814814814814</v>
@@ -3340,19 +3341,19 @@
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" t="s">
         <v>481</v>
       </c>
-      <c r="B35" t="s">
-        <v>482</v>
-      </c>
-      <c r="C35" t="s">
-        <v>483</v>
-      </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3">
         <v>1.3339814814814814</v>
@@ -3363,19 +3364,19 @@
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="3">
         <v>1.3339814814814814</v>
@@ -3386,19 +3387,19 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" t="s">
         <v>304</v>
       </c>
-      <c r="B37" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" t="s">
-        <v>306</v>
-      </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3">
         <v>1.3339814814814814</v>
@@ -3409,19 +3410,19 @@
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>549</v>
+      </c>
+      <c r="B38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" t="s">
         <v>551</v>
       </c>
-      <c r="B38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C38" t="s">
-        <v>553</v>
-      </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3">
         <v>1.3339814814814814</v>
@@ -3432,19 +3433,19 @@
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
         <v>1.3339814814814814</v>
@@ -3461,19 +3462,19 @@
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3">
         <v>1.3339814814814814</v>
@@ -3484,19 +3485,19 @@
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C41" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3">
         <v>1.3339814814814814</v>
@@ -3507,19 +3508,19 @@
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>1.3339814814814814</v>
@@ -3530,19 +3531,19 @@
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="3">
         <v>1.3339814814814814</v>
@@ -3553,19 +3554,19 @@
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>1.3339814814814814</v>
@@ -3576,19 +3577,19 @@
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>1.3339814814814814</v>
@@ -3599,19 +3600,19 @@
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>575</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" t="s">
         <v>577</v>
       </c>
-      <c r="B46" t="s">
-        <v>578</v>
-      </c>
-      <c r="C46" t="s">
-        <v>579</v>
-      </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3">
         <v>1.3339814814814814</v>
@@ -3622,19 +3623,19 @@
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
         <v>184</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>185</v>
-      </c>
-      <c r="D47" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" t="s">
-        <v>187</v>
       </c>
       <c r="G47" s="3">
         <v>1.4589814814814814</v>
@@ -3645,19 +3646,19 @@
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
+        <v>484</v>
+      </c>
+      <c r="C48" t="s">
+        <v>485</v>
+      </c>
+      <c r="D48" t="s">
         <v>486</v>
       </c>
-      <c r="C48" t="s">
-        <v>487</v>
-      </c>
-      <c r="D48" t="s">
-        <v>488</v>
-      </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G48" s="3">
         <v>1.3339814814814814</v>
@@ -3668,19 +3669,19 @@
     </row>
     <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>424</v>
+      </c>
+      <c r="B49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
         <v>426</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
         <v>427</v>
-      </c>
-      <c r="C49" t="s">
-        <v>428</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" t="s">
-        <v>429</v>
       </c>
       <c r="G49" s="3">
         <v>1.3339814814814814</v>
@@ -3691,19 +3692,19 @@
     </row>
     <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
         <v>42</v>
       </c>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3">
         <v>1.3339814814814814</v>
@@ -3714,19 +3715,19 @@
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="3">
         <v>1.3339814814814814</v>
@@ -3737,19 +3738,19 @@
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>1.3339814814814814</v>
@@ -3760,19 +3761,19 @@
     </row>
     <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="3">
         <v>1.3339814814814814</v>
@@ -3783,19 +3784,19 @@
     </row>
     <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
         <v>87</v>
       </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="3">
         <v>1.3339814814814814</v>
@@ -3806,19 +3807,19 @@
     </row>
     <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C55" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="3">
         <v>1.3339814814814814</v>
@@ -3829,19 +3830,19 @@
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C56" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3">
         <v>1.3339814814814814</v>
@@ -3852,19 +3853,19 @@
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C57" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="3">
         <v>1.3339814814814814</v>
@@ -3875,19 +3876,19 @@
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>1.3339814814814814</v>
@@ -3898,19 +3899,19 @@
     </row>
     <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="3">
         <v>1.3339814814814814</v>
@@ -3921,19 +3922,19 @@
     </row>
     <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="3">
         <v>1.3339814814814814</v>
@@ -3944,19 +3945,19 @@
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="3">
         <v>1.3339814814814814</v>
@@ -3967,19 +3968,19 @@
     </row>
     <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G62" s="3">
         <v>1.3339814814814814</v>
@@ -3990,19 +3991,19 @@
     </row>
     <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="3">
         <v>1.3339814814814814</v>
@@ -4013,19 +4014,19 @@
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>396</v>
+      </c>
+      <c r="B64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" t="s">
         <v>398</v>
       </c>
-      <c r="B64" t="s">
-        <v>399</v>
-      </c>
-      <c r="C64" t="s">
-        <v>400</v>
-      </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="3">
         <v>1.3339814814814814</v>
@@ -4036,19 +4037,19 @@
     </row>
     <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
         <v>142</v>
       </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3">
         <v>1.3339814814814814</v>
@@ -4059,19 +4060,19 @@
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B66" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C66" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="3">
         <v>1.3339814814814814</v>
@@ -4082,19 +4083,19 @@
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3">
         <v>1.3339814814814814</v>
@@ -4105,19 +4106,19 @@
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G68" s="3">
         <v>1.3339814814814814</v>
@@ -4134,19 +4135,19 @@
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="3">
         <v>1.3339814814814814</v>
@@ -4157,19 +4158,19 @@
     </row>
     <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" t="s">
+        <v>369</v>
+      </c>
+      <c r="C70" t="s">
         <v>370</v>
       </c>
-      <c r="B70" t="s">
-        <v>371</v>
-      </c>
-      <c r="C70" t="s">
-        <v>372</v>
-      </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70" s="3">
         <v>1.3339814814814814</v>
@@ -4180,19 +4181,19 @@
     </row>
     <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>514</v>
+      </c>
+      <c r="B71" t="s">
+        <v>515</v>
+      </c>
+      <c r="C71" t="s">
         <v>516</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>517</v>
       </c>
-      <c r="C71" t="s">
-        <v>518</v>
-      </c>
-      <c r="D71" t="s">
-        <v>519</v>
-      </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G71" s="3">
         <v>1.3339814814814814</v>
@@ -4203,19 +4204,19 @@
     </row>
     <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="3">
         <v>1.3339814814814814</v>
@@ -4226,19 +4227,19 @@
     </row>
     <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" t="s">
         <v>468</v>
       </c>
-      <c r="B73" t="s">
-        <v>469</v>
-      </c>
-      <c r="C73" t="s">
-        <v>470</v>
-      </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3">
         <v>1.3339814814814814</v>
@@ -4249,19 +4250,19 @@
     </row>
     <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C74" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="3">
         <v>1.3339814814814814</v>
@@ -4272,19 +4273,19 @@
     </row>
     <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B75" t="s">
+        <v>429</v>
+      </c>
+      <c r="C75" t="s">
         <v>430</v>
       </c>
-      <c r="B75" t="s">
-        <v>431</v>
-      </c>
-      <c r="C75" t="s">
-        <v>432</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G75" s="3">
         <v>1.3339814814814814</v>
@@ -4295,19 +4296,19 @@
     </row>
     <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76" s="3">
         <v>1.3339814814814814</v>
@@ -4318,19 +4319,19 @@
     </row>
     <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="3">
         <v>1.3339814814814814</v>
@@ -4341,19 +4342,19 @@
     </row>
     <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="3">
         <v>1.3339814814814814</v>
@@ -4364,19 +4365,19 @@
     </row>
     <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79" s="3">
         <v>1.3339814814814814</v>
@@ -4387,19 +4388,19 @@
     </row>
     <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C80" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80" s="3">
         <v>1.3339814814814814</v>
@@ -4410,19 +4411,19 @@
     </row>
     <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
         <v>116</v>
       </c>
-      <c r="B81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="3">
         <v>1.3339814814814814</v>
@@ -4433,19 +4434,19 @@
     </row>
     <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3">
         <v>1.3339814814814814</v>
@@ -4456,19 +4457,19 @@
     </row>
     <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C83" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>1.3339814814814814</v>
@@ -4485,19 +4486,19 @@
     </row>
     <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="3">
         <v>1.3339814814814814</v>
@@ -4508,19 +4509,19 @@
     </row>
     <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B85" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" t="s">
         <v>411</v>
       </c>
-      <c r="B85" t="s">
-        <v>412</v>
-      </c>
-      <c r="C85" t="s">
-        <v>413</v>
-      </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G85" s="3">
         <v>1.3339814814814814</v>
@@ -4531,19 +4532,19 @@
     </row>
     <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>431</v>
+      </c>
+      <c r="B86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" t="s">
         <v>433</v>
       </c>
-      <c r="B86" t="s">
-        <v>434</v>
-      </c>
-      <c r="C86" t="s">
-        <v>435</v>
-      </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86" s="3">
         <v>1.3339814814814814</v>
@@ -4554,19 +4555,19 @@
     </row>
     <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B87" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" t="s">
         <v>337</v>
       </c>
-      <c r="C87" t="s">
-        <v>338</v>
-      </c>
-      <c r="D87" t="s">
-        <v>339</v>
-      </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G87" s="3">
         <v>1.3339814814814814</v>
@@ -4577,19 +4578,19 @@
     </row>
     <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C88" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="3">
         <v>1.3339814814814814</v>
@@ -4600,19 +4601,19 @@
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G89" s="3">
         <v>1.7923148148148149</v>
@@ -4623,19 +4624,19 @@
     </row>
     <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="3">
         <v>1.3339814814814814</v>
@@ -4646,19 +4647,19 @@
     </row>
     <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" t="s">
         <v>135</v>
       </c>
-      <c r="B91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" t="s">
-        <v>137</v>
-      </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>1.3339814814814814</v>
@@ -4669,19 +4670,19 @@
     </row>
     <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C92" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="3">
         <v>1.3339814814814814</v>
@@ -4692,19 +4693,19 @@
     </row>
     <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B93" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" t="s">
+        <v>506</v>
+      </c>
+      <c r="D93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>507</v>
-      </c>
-      <c r="C93" t="s">
-        <v>508</v>
-      </c>
-      <c r="D93" t="s">
-        <v>186</v>
-      </c>
-      <c r="F93" t="s">
-        <v>509</v>
       </c>
       <c r="G93" s="3">
         <v>1.7506481481481482</v>
@@ -4715,19 +4716,19 @@
     </row>
     <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>1.3339814814814814</v>
@@ -4744,19 +4745,19 @@
     </row>
     <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3">
         <v>1.3339814814814814</v>
@@ -4767,19 +4768,19 @@
     </row>
     <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3">
         <v>1.3339814814814814</v>
@@ -4790,19 +4791,19 @@
     </row>
     <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="3">
         <v>1.3339814814814814</v>
@@ -4813,19 +4814,19 @@
     </row>
     <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C98" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G98" s="3">
         <v>1.3339814814814814</v>
@@ -4836,19 +4837,19 @@
     </row>
     <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3">
         <v>1.3339814814814814</v>
@@ -4859,19 +4860,19 @@
     </row>
     <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" t="s">
         <v>121</v>
       </c>
-      <c r="B100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" t="s">
-        <v>123</v>
-      </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>1.3339814814814814</v>
@@ -4882,19 +4883,19 @@
     </row>
     <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>1.3339814814814814</v>
@@ -4905,19 +4906,19 @@
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B102" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C102" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F102" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G102" s="3">
         <v>1.7923148148148149</v>
@@ -4928,19 +4929,19 @@
     </row>
     <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>412</v>
+      </c>
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
         <v>414</v>
       </c>
-      <c r="B103" t="s">
-        <v>415</v>
-      </c>
-      <c r="C103" t="s">
-        <v>416</v>
-      </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103" s="3">
         <v>1.3339814814814814</v>
@@ -4951,19 +4952,19 @@
     </row>
     <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C104" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G104" s="3">
         <v>1.3339814814814814</v>
@@ -4974,19 +4975,19 @@
     </row>
     <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105" s="3">
         <v>1.3339814814814814</v>
@@ -4997,19 +4998,19 @@
     </row>
     <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="s">
         <v>147</v>
       </c>
-      <c r="C106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" t="s">
-        <v>149</v>
-      </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G106" s="3">
         <v>1.3339814814814814</v>
@@ -5020,19 +5021,19 @@
     </row>
     <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C107" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G107" s="3">
         <v>1.3339814814814814</v>
@@ -5043,19 +5044,19 @@
     </row>
     <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G108" s="3">
         <v>1.3339814814814814</v>
@@ -5066,19 +5067,19 @@
     </row>
     <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
         <v>436</v>
       </c>
-      <c r="B109" t="s">
-        <v>437</v>
-      </c>
-      <c r="C109" t="s">
-        <v>438</v>
-      </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109" s="3">
         <v>1.3339814814814814</v>
@@ -5089,19 +5090,19 @@
     </row>
     <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" s="3">
         <v>1.3339814814814814</v>
@@ -5118,19 +5119,19 @@
     </row>
     <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D111" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" s="3">
         <v>1.3339814814814814</v>
@@ -5141,19 +5142,19 @@
     </row>
     <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" t="s">
         <v>342</v>
       </c>
-      <c r="C112" t="s">
-        <v>343</v>
-      </c>
-      <c r="D112" t="s">
-        <v>344</v>
-      </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="3">
         <v>1.3339814814814814</v>
@@ -5164,19 +5165,19 @@
     </row>
     <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>605</v>
+      </c>
+      <c r="B113" t="s">
+        <v>606</v>
+      </c>
+      <c r="C113" t="s">
         <v>607</v>
       </c>
-      <c r="B113" t="s">
-        <v>608</v>
-      </c>
-      <c r="C113" t="s">
-        <v>609</v>
-      </c>
       <c r="D113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G113" s="3">
         <v>1.3339814814814814</v>
@@ -5187,19 +5188,19 @@
     </row>
     <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" s="3">
         <v>1.3339814814814814</v>
@@ -5210,19 +5211,19 @@
     </row>
     <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115" s="3">
         <v>1.3339814814814814</v>
@@ -5233,19 +5234,19 @@
     </row>
     <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="3">
         <v>1.3339814814814814</v>
@@ -5256,19 +5257,19 @@
     </row>
     <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B117" t="s">
+        <v>529</v>
+      </c>
+      <c r="C117" t="s">
+        <v>530</v>
+      </c>
+      <c r="D117" t="s">
         <v>531</v>
       </c>
-      <c r="C117" t="s">
-        <v>532</v>
-      </c>
-      <c r="D117" t="s">
-        <v>533</v>
-      </c>
       <c r="F117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G117" s="3">
         <v>1.4589814814814814</v>
@@ -5279,19 +5280,19 @@
     </row>
     <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B118" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G118" s="3">
         <v>1.3339814814814814</v>
@@ -5302,19 +5303,19 @@
     </row>
     <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119" s="3">
         <v>1.3339814814814814</v>
@@ -5325,19 +5326,19 @@
     </row>
     <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C120" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="3">
         <v>1.3339814814814814</v>
@@ -5348,19 +5349,19 @@
     </row>
     <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" t="s">
         <v>367</v>
       </c>
-      <c r="B121" t="s">
-        <v>368</v>
-      </c>
-      <c r="C121" t="s">
-        <v>369</v>
-      </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G121" s="3">
         <v>1.3339814814814814</v>
@@ -5371,19 +5372,19 @@
     </row>
     <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="3">
         <v>1.3339814814814814</v>
@@ -5394,19 +5395,19 @@
     </row>
     <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G123" s="3">
         <v>1.3339814814814814</v>
@@ -5417,19 +5418,19 @@
     </row>
     <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124" s="3">
         <v>1.3339814814814814</v>
@@ -5440,19 +5441,19 @@
     </row>
     <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" t="s">
         <v>51</v>
       </c>
-      <c r="B125" t="s">
-        <v>52</v>
-      </c>
-      <c r="C125" t="s">
-        <v>53</v>
-      </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3">
         <v>1.3339814814814814</v>
@@ -5463,19 +5464,19 @@
     </row>
     <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G126" s="3">
         <v>1.3339814814814814</v>
@@ -5486,19 +5487,19 @@
     </row>
     <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G127" s="3">
         <v>1.3339814814814814</v>
@@ -5509,19 +5510,19 @@
     </row>
     <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G128" s="3">
         <v>1.3339814814814814</v>
@@ -5532,19 +5533,19 @@
     </row>
     <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B129" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C129" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" s="3">
         <v>1.4589814814814814</v>
@@ -5555,19 +5556,19 @@
     </row>
     <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>518</v>
+      </c>
+      <c r="B130" t="s">
+        <v>519</v>
+      </c>
+      <c r="C130" t="s">
         <v>520</v>
       </c>
-      <c r="B130" t="s">
-        <v>521</v>
-      </c>
-      <c r="C130" t="s">
-        <v>522</v>
-      </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G130" s="3">
         <v>1.3339814814814814</v>
@@ -5578,19 +5579,19 @@
     </row>
     <row r="131" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C131" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G131" s="3">
         <v>1.3339814814814814</v>
@@ -5601,19 +5602,19 @@
     </row>
     <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>321</v>
+      </c>
+      <c r="B132" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" t="s">
         <v>323</v>
       </c>
-      <c r="B132" t="s">
-        <v>324</v>
-      </c>
-      <c r="C132" t="s">
-        <v>325</v>
-      </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G132" s="3">
         <v>1.3339814814814814</v>
@@ -5624,19 +5625,19 @@
     </row>
     <row r="133" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>328</v>
+      </c>
+      <c r="B133" t="s">
+        <v>329</v>
+      </c>
+      <c r="C133" t="s">
         <v>330</v>
       </c>
-      <c r="B133" t="s">
-        <v>331</v>
-      </c>
-      <c r="C133" t="s">
-        <v>332</v>
-      </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G133" s="3">
         <v>1.3339814814814814</v>
@@ -5647,19 +5648,19 @@
     </row>
     <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C134" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G134" s="3">
         <v>1.3339814814814814</v>
@@ -5670,19 +5671,19 @@
     </row>
     <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B135" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G135" s="3">
         <v>1.3339814814814814</v>
@@ -5693,19 +5694,19 @@
     </row>
     <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C136" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G136" s="3">
         <v>1.3339814814814814</v>
@@ -5716,19 +5717,19 @@
     </row>
     <row r="137" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G137" s="3">
         <v>1.3339814814814814</v>
@@ -5739,19 +5740,19 @@
     </row>
     <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B138" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C138" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="3">
         <v>1.3339814814814814</v>
@@ -5762,19 +5763,19 @@
     </row>
     <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="3">
         <v>1.3339814814814814</v>
@@ -5785,19 +5786,19 @@
     </row>
     <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>534</v>
+      </c>
+      <c r="B140" t="s">
+        <v>535</v>
+      </c>
+      <c r="C140" t="s">
         <v>536</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
+        <v>56</v>
+      </c>
+      <c r="F140" t="s">
         <v>537</v>
-      </c>
-      <c r="C140" t="s">
-        <v>538</v>
-      </c>
-      <c r="D140" t="s">
-        <v>58</v>
-      </c>
-      <c r="F140" t="s">
-        <v>539</v>
       </c>
       <c r="G140" s="3">
         <v>1.2923148148148149</v>
@@ -5808,19 +5809,19 @@
     </row>
     <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B141" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C141" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141" s="3">
         <v>1.3339814814814814</v>
@@ -5831,19 +5832,19 @@
     </row>
     <row r="142" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C142" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D142" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" s="3">
         <v>1.3339814814814814</v>
@@ -5854,19 +5855,19 @@
     </row>
     <row r="143" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>521</v>
+      </c>
+      <c r="B143" t="s">
+        <v>522</v>
+      </c>
+      <c r="C143" t="s">
         <v>523</v>
       </c>
-      <c r="B143" t="s">
-        <v>524</v>
-      </c>
-      <c r="C143" t="s">
-        <v>525</v>
-      </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" s="3">
         <v>1.3339814814814814</v>
@@ -5877,19 +5878,19 @@
     </row>
     <row r="144" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s">
         <v>295</v>
       </c>
-      <c r="B144" t="s">
-        <v>296</v>
-      </c>
-      <c r="C144" t="s">
-        <v>297</v>
-      </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G144" s="3">
         <v>1.3339814814814814</v>
@@ -5900,19 +5901,19 @@
     </row>
     <row r="145" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B145" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C145" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G145" s="3">
         <v>1.3339814814814814</v>
@@ -5923,19 +5924,19 @@
     </row>
     <row r="146" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" t="s">
         <v>160</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>161</v>
       </c>
-      <c r="C146" t="s">
-        <v>162</v>
-      </c>
-      <c r="D146" t="s">
-        <v>163</v>
-      </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G146" s="3">
         <v>1.3339814814814814</v>
@@ -5946,19 +5947,19 @@
     </row>
     <row r="147" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B147" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C147" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G147" s="3">
         <v>1.3339814814814814</v>
@@ -5969,19 +5970,19 @@
     </row>
     <row r="148" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G148" s="3">
         <v>1.3339814814814814</v>
@@ -5992,19 +5993,19 @@
     </row>
     <row r="149" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" t="s">
         <v>93</v>
       </c>
-      <c r="B149" t="s">
-        <v>94</v>
-      </c>
-      <c r="C149" t="s">
-        <v>95</v>
-      </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G149" s="3">
         <v>1.3339814814814814</v>
@@ -6015,19 +6016,19 @@
     </row>
     <row r="150" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C150" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G150" s="3">
         <v>1.3339814814814814</v>
@@ -6038,19 +6039,19 @@
     </row>
     <row r="151" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G151" s="3">
         <v>1.3339814814814814</v>
@@ -6061,19 +6062,19 @@
     </row>
     <row r="152" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B152" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C152" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G152" s="3">
         <v>1.3339814814814814</v>
@@ -6084,19 +6085,19 @@
     </row>
     <row r="153" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B153" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C153" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G153" s="3">
         <v>1.3339814814814814</v>
@@ -6107,19 +6108,19 @@
     </row>
     <row r="154" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>524</v>
+      </c>
+      <c r="B154" t="s">
+        <v>525</v>
+      </c>
+      <c r="C154" t="s">
         <v>526</v>
       </c>
-      <c r="B154" t="s">
-        <v>527</v>
-      </c>
-      <c r="C154" t="s">
-        <v>528</v>
-      </c>
       <c r="D154" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G154" s="3">
         <v>1.3339814814814814</v>
@@ -6130,19 +6131,19 @@
     </row>
     <row r="155" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D155" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G155" s="3">
         <v>1.3339814814814814</v>
@@ -6153,19 +6154,19 @@
     </row>
     <row r="156" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C156" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D156" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G156" s="3">
         <v>1.3339814814814814</v>
@@ -6176,19 +6177,19 @@
     </row>
     <row r="157" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C157" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G157" s="3">
         <v>1.3339814814814814</v>
@@ -6199,19 +6200,19 @@
     </row>
     <row r="158" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B158" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C158" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D158" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G158" s="3">
         <v>1.3339814814814814</v>
@@ -6222,19 +6223,19 @@
     </row>
     <row r="159" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C159" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G159" s="3">
         <v>1.3339814814814814</v>
@@ -6245,19 +6246,19 @@
     </row>
     <row r="160" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B160" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C160" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D160" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G160" s="3">
         <v>1.3339814814814814</v>
@@ -6268,19 +6269,19 @@
     </row>
     <row r="161" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" t="s">
         <v>45</v>
       </c>
-      <c r="C161" t="s">
-        <v>46</v>
-      </c>
-      <c r="D161" t="s">
-        <v>47</v>
-      </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G161" s="3">
         <v>1.3339814814814814</v>
@@ -6291,19 +6292,19 @@
     </row>
     <row r="162" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" t="s">
         <v>107</v>
       </c>
-      <c r="B162" t="s">
-        <v>108</v>
-      </c>
-      <c r="C162" t="s">
-        <v>109</v>
-      </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G162" s="3">
         <v>1.3339814814814814</v>
@@ -6314,19 +6315,19 @@
     </row>
     <row r="163" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C163" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G163" s="3">
         <v>1.3339814814814814</v>
@@ -6337,19 +6338,19 @@
     </row>
     <row r="164" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C164" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G164" s="3">
         <v>1.3339814814814814</v>
@@ -6366,19 +6367,19 @@
     </row>
     <row r="165" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" t="s">
         <v>164</v>
       </c>
-      <c r="C165" t="s">
-        <v>165</v>
-      </c>
-      <c r="D165" t="s">
-        <v>166</v>
-      </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G165" s="3">
         <v>1.3339814814814814</v>
@@ -6389,19 +6390,19 @@
     </row>
     <row r="166" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C166" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G166" s="3">
         <v>1.3339814814814814</v>
@@ -6412,19 +6413,19 @@
     </row>
     <row r="167" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G167" s="3">
         <v>1.3339814814814814</v>
@@ -6435,19 +6436,19 @@
     </row>
     <row r="168" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G168" s="3">
         <v>1.3339814814814814</v>
@@ -6458,19 +6459,19 @@
     </row>
     <row r="169" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C169" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G169" s="3">
         <v>1.3339814814814814</v>
@@ -6481,19 +6482,19 @@
     </row>
     <row r="170" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B170" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G170" s="3">
         <v>1.3339814814814814</v>
@@ -6504,19 +6505,19 @@
     </row>
     <row r="171" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G171" s="3">
         <v>1.3339814814814814</v>
@@ -6527,19 +6528,19 @@
     </row>
     <row r="172" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C172" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G172" s="3">
         <v>1.3339814814814814</v>
@@ -6550,19 +6551,19 @@
     </row>
     <row r="173" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B173" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C173" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G173" s="3">
         <v>1.3339814814814814</v>
@@ -6573,19 +6574,19 @@
     </row>
     <row r="174" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>439</v>
+      </c>
+      <c r="B174" t="s">
+        <v>440</v>
+      </c>
+      <c r="C174" t="s">
         <v>441</v>
       </c>
-      <c r="B174" t="s">
-        <v>442</v>
-      </c>
-      <c r="C174" t="s">
-        <v>443</v>
-      </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G174" s="3">
         <v>1.3339814814814814</v>
@@ -6596,19 +6597,19 @@
     </row>
     <row r="175" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B175" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C175" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G175" s="3">
         <v>1.4589814814814814</v>
@@ -6619,19 +6620,19 @@
     </row>
     <row r="176" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B176" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176" t="s">
+        <v>457</v>
+      </c>
+      <c r="D176" t="s">
         <v>458</v>
       </c>
-      <c r="C176" t="s">
-        <v>459</v>
-      </c>
-      <c r="D176" t="s">
-        <v>460</v>
-      </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G176" s="3">
         <v>1.3339814814814814</v>
@@ -6642,19 +6643,19 @@
     </row>
     <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
         <v>25</v>
       </c>
-      <c r="C177" t="s">
+      <c r="F177" t="s">
         <v>26</v>
-      </c>
-      <c r="D177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" t="s">
-        <v>28</v>
       </c>
       <c r="G177" s="3">
         <v>1.3339814814814814</v>
@@ -6665,19 +6666,19 @@
     </row>
     <row r="178" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B178" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C178" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D178" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G178" s="3">
         <v>1.3339814814814814</v>
@@ -6688,19 +6689,19 @@
     </row>
     <row r="179" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179" t="s">
         <v>361</v>
       </c>
-      <c r="B179" t="s">
-        <v>362</v>
-      </c>
-      <c r="C179" t="s">
-        <v>363</v>
-      </c>
       <c r="D179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G179" s="3">
         <v>1.3339814814814814</v>
@@ -6711,19 +6712,19 @@
     </row>
     <row r="180" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B180" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C180" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G180" s="3">
         <v>1.3339814814814814</v>
@@ -6734,19 +6735,19 @@
     </row>
     <row r="181" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G181" s="3">
         <v>1.3339814814814814</v>
@@ -6757,19 +6758,19 @@
     </row>
     <row r="182" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G182" s="3">
         <v>1.3339814814814814</v>
@@ -6780,19 +6781,19 @@
     </row>
     <row r="183" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C183" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G183" s="3">
         <v>1.3339814814814814</v>
@@ -6803,19 +6804,19 @@
     </row>
     <row r="184" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B184" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" t="s">
         <v>56</v>
       </c>
-      <c r="C184" t="s">
-        <v>57</v>
-      </c>
-      <c r="D184" t="s">
-        <v>58</v>
-      </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G184" s="3">
         <v>1.3339814814814814</v>
@@ -6826,19 +6827,19 @@
     </row>
     <row r="185" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B185" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C185" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D185" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G185" s="3">
         <v>1.3339814814814814</v>
@@ -6855,19 +6856,19 @@
     </row>
     <row r="186" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B186" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C186" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G186" s="3">
         <v>1.3339814814814814</v>
@@ -6878,19 +6879,19 @@
     </row>
     <row r="187" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B187" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C187" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D187" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G187" s="3">
         <v>1.3339814814814814</v>
@@ -6901,19 +6902,19 @@
     </row>
     <row r="188" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G188" s="3">
         <v>1.3339814814814814</v>
@@ -6930,19 +6931,19 @@
     </row>
     <row r="189" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C189" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D189" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G189" s="3">
         <v>1.3339814814814814</v>
@@ -6953,19 +6954,19 @@
     </row>
     <row r="190" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>578</v>
+      </c>
+      <c r="B190" t="s">
+        <v>579</v>
+      </c>
+      <c r="C190" t="s">
         <v>580</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>581</v>
       </c>
-      <c r="C190" t="s">
-        <v>582</v>
-      </c>
-      <c r="D190" t="s">
-        <v>583</v>
-      </c>
       <c r="F190" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G190" s="3">
         <v>1.3339814814814814</v>
@@ -6982,19 +6983,19 @@
     </row>
     <row r="191" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B191" t="s">
+        <v>406</v>
+      </c>
+      <c r="C191" t="s">
+        <v>407</v>
+      </c>
+      <c r="D191" t="s">
         <v>408</v>
       </c>
-      <c r="C191" t="s">
-        <v>409</v>
-      </c>
-      <c r="D191" t="s">
-        <v>410</v>
-      </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G191" s="3">
         <v>1.3339814814814814</v>
@@ -7005,19 +7006,19 @@
     </row>
     <row r="192" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G192" s="3">
         <v>1.3339814814814814</v>
@@ -7028,19 +7029,19 @@
     </row>
     <row r="193" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B193" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C193" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G193" s="3">
         <v>1.3339814814814814</v>
@@ -7051,19 +7052,19 @@
     </row>
     <row r="194" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D194" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194" s="3">
         <v>1.3339814814814814</v>
@@ -7074,19 +7075,19 @@
     </row>
     <row r="195" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>582</v>
+      </c>
+      <c r="B195" t="s">
+        <v>583</v>
+      </c>
+      <c r="C195" t="s">
         <v>584</v>
       </c>
-      <c r="B195" t="s">
-        <v>585</v>
-      </c>
-      <c r="C195" t="s">
-        <v>586</v>
-      </c>
       <c r="D195" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G195" s="3">
         <v>1.3339814814814814</v>
@@ -7097,19 +7098,19 @@
     </row>
     <row r="196" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B196" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C196" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G196" s="3">
         <v>1.3339814814814814</v>
@@ -7120,19 +7121,19 @@
     </row>
     <row r="197" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C197" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D197" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G197" s="3">
         <v>1.3339814814814814</v>
@@ -7143,19 +7144,19 @@
     </row>
     <row r="198" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B198" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C198" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G198" s="3">
         <v>1.3339814814814814</v>
@@ -7166,19 +7167,19 @@
     </row>
     <row r="199" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D199" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G199" s="3">
         <v>1.3339814814814814</v>
@@ -7189,19 +7190,19 @@
     </row>
     <row r="200" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C200" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G200" s="3">
         <v>1.3339814814814814</v>
@@ -7212,19 +7213,19 @@
     </row>
     <row r="201" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B201" t="s">
+        <v>237</v>
+      </c>
+      <c r="C201" t="s">
         <v>238</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>239</v>
       </c>
-      <c r="C201" t="s">
-        <v>240</v>
-      </c>
-      <c r="D201" t="s">
-        <v>241</v>
-      </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G201" s="3">
         <v>1.3339814814814814</v>
@@ -7235,19 +7236,19 @@
     </row>
     <row r="202" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G202" s="3">
         <v>1.3339814814814814</v>
@@ -7258,19 +7259,19 @@
     </row>
     <row r="203" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B203" t="s">
+        <v>446</v>
+      </c>
+      <c r="C203" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" t="s">
         <v>448</v>
       </c>
-      <c r="C203" t="s">
-        <v>449</v>
-      </c>
-      <c r="D203" t="s">
-        <v>450</v>
-      </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G203" s="3">
         <v>1.3339814814814814</v>
@@ -7281,19 +7282,19 @@
     </row>
     <row r="204" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C204" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G204" s="3">
         <v>1.3339814814814814</v>
@@ -7304,19 +7305,19 @@
     </row>
     <row r="205" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>393</v>
+      </c>
+      <c r="B205" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" t="s">
         <v>395</v>
       </c>
-      <c r="B205" t="s">
-        <v>396</v>
-      </c>
-      <c r="C205" t="s">
-        <v>397</v>
-      </c>
       <c r="D205" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G205" s="3">
         <v>1.3339814814814814</v>
@@ -7327,19 +7328,19 @@
     </row>
     <row r="206" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G206" s="3">
         <v>1.3339814814814814</v>
@@ -7350,19 +7351,19 @@
     </row>
     <row r="207" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B207" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C207" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G207" s="3">
         <v>1.3339814814814814</v>
@@ -7373,19 +7374,19 @@
     </row>
     <row r="208" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B208" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C208" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G208" s="3">
         <v>1.3339814814814814</v>
@@ -7396,19 +7397,19 @@
     </row>
     <row r="209" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C209" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G209" s="3">
         <v>1.3339814814814814</v>
@@ -7419,19 +7420,19 @@
     </row>
     <row r="210" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>362</v>
+      </c>
+      <c r="B210" t="s">
+        <v>363</v>
+      </c>
+      <c r="C210" t="s">
         <v>364</v>
       </c>
-      <c r="B210" t="s">
-        <v>365</v>
-      </c>
-      <c r="C210" t="s">
-        <v>366</v>
-      </c>
       <c r="D210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G210" s="3">
         <v>1.3339814814814814</v>
@@ -7442,19 +7443,19 @@
     </row>
     <row r="211" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C211" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D211" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G211" s="3">
         <v>1.3339814814814814</v>
@@ -7465,19 +7466,19 @@
     </row>
     <row r="212" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C212" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G212" s="3">
         <v>1.3339814814814814</v>
@@ -7488,19 +7489,19 @@
     </row>
     <row r="213" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C213" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D213" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G213" s="3">
         <v>1.3339814814814814</v>
@@ -7511,19 +7512,19 @@
     </row>
     <row r="214" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B214" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C214" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D214" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G214" s="3">
         <v>1.3339814814814814</v>
@@ -7534,19 +7535,19 @@
     </row>
     <row r="215" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C215" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F215" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G215" s="3">
         <v>1.3339814814814814</v>
@@ -7557,19 +7558,19 @@
     </row>
     <row r="216" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B216" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C216" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D216" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G216" s="3">
         <v>1.3339814814814814</v>
@@ -7580,19 +7581,19 @@
     </row>
     <row r="217" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B217" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C217" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G217" s="3">
         <v>1.3339814814814814</v>
@@ -7603,19 +7604,19 @@
     </row>
     <row r="218" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B218" t="s">
+        <v>356</v>
+      </c>
+      <c r="C218" t="s">
+        <v>357</v>
+      </c>
+      <c r="D218" t="s">
         <v>358</v>
       </c>
-      <c r="C218" t="s">
-        <v>359</v>
-      </c>
-      <c r="D218" t="s">
-        <v>360</v>
-      </c>
       <c r="F218" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G218" s="3">
         <v>1.3339814814814814</v>
@@ -7626,19 +7627,19 @@
     </row>
     <row r="219" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B219" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C219" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D219" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F219" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G219" s="3">
         <v>1.3339814814814814</v>
@@ -7649,19 +7650,19 @@
     </row>
     <row r="220" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B220" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C220" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G220" s="3">
         <v>1.3339814814814814</v>
@@ -7672,19 +7673,19 @@
     </row>
     <row r="221" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B221" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C221" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D221" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G221" s="3">
         <v>1.3339814814814814</v>
@@ -7695,19 +7696,19 @@
     </row>
     <row r="222" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C222" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D222" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G222" s="3">
         <v>1.3339814814814814</v>
@@ -7718,19 +7719,19 @@
     </row>
     <row r="223" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B223" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C223" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G223" s="3">
         <v>1.3339814814814814</v>
@@ -7741,19 +7742,19 @@
     </row>
     <row r="224" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>417</v>
+      </c>
+      <c r="B224" t="s">
+        <v>418</v>
+      </c>
+      <c r="C224" t="s">
         <v>419</v>
       </c>
-      <c r="B224" t="s">
-        <v>420</v>
-      </c>
-      <c r="C224" t="s">
-        <v>421</v>
-      </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F224" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G224" s="3">
         <v>1.3339814814814814</v>
@@ -7764,19 +7765,19 @@
     </row>
     <row r="225" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B225" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C225" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D225" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G225" s="3">
         <v>1.3339814814814814</v>
@@ -7793,19 +7794,19 @@
     </row>
     <row r="226" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>62</v>
+      </c>
+      <c r="B226" t="s">
+        <v>63</v>
+      </c>
+      <c r="C226" t="s">
         <v>64</v>
       </c>
-      <c r="B226" t="s">
-        <v>65</v>
-      </c>
-      <c r="C226" t="s">
-        <v>66</v>
-      </c>
       <c r="D226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G226" s="3">
         <v>1.3339814814814814</v>
@@ -7816,19 +7817,19 @@
     </row>
     <row r="227" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B227" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C227" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D227" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G227" s="3">
         <v>1.3339814814814814</v>
@@ -7839,19 +7840,19 @@
     </row>
     <row r="228" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228" t="s">
         <v>35</v>
       </c>
-      <c r="C228" t="s">
-        <v>36</v>
-      </c>
-      <c r="D228" t="s">
-        <v>37</v>
-      </c>
       <c r="F228" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G228" s="3">
         <v>1.3339814814814814</v>
@@ -7862,19 +7863,19 @@
     </row>
     <row r="229" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B229" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C229" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G229" s="3">
         <v>1.3339814814814814</v>
@@ -7885,19 +7886,19 @@
     </row>
     <row r="230" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B230" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C230" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G230" s="3">
         <v>1.3339814814814814</v>
@@ -7908,19 +7909,19 @@
     </row>
     <row r="231" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B231" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C231" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F231" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G231" s="3">
         <v>1.3339814814814814</v>
@@ -7931,19 +7932,19 @@
     </row>
     <row r="232" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>587</v>
+      </c>
+      <c r="B232" t="s">
+        <v>588</v>
+      </c>
+      <c r="C232" t="s">
         <v>589</v>
       </c>
-      <c r="B232" t="s">
-        <v>590</v>
-      </c>
-      <c r="C232" t="s">
-        <v>591</v>
-      </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G232" s="3">
         <v>1.3339814814814814</v>
@@ -7954,19 +7955,19 @@
     </row>
     <row r="233" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>218</v>
+      </c>
+      <c r="B233" t="s">
+        <v>219</v>
+      </c>
+      <c r="C233" t="s">
         <v>220</v>
       </c>
-      <c r="B233" t="s">
+      <c r="D233" t="s">
         <v>221</v>
       </c>
-      <c r="C233" t="s">
-        <v>222</v>
-      </c>
-      <c r="D233" t="s">
-        <v>223</v>
-      </c>
       <c r="F233" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G233" s="3">
         <v>1.3339814814814814</v>
@@ -7977,19 +7978,19 @@
     </row>
     <row r="234" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C234" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F234" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G234" s="3">
         <v>1.3339814814814814</v>
@@ -8000,19 +8001,19 @@
     </row>
     <row r="235" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B235" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C235" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D235" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F235" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G235" s="3">
         <v>1.3339814814814814</v>
@@ -8023,19 +8024,19 @@
     </row>
     <row r="236" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B236" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C236" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F236" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G236" s="3">
         <v>1.3339814814814814</v>
@@ -8046,19 +8047,19 @@
     </row>
     <row r="237" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B237" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C237" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G237" s="3">
         <v>1.3339814814814814</v>
@@ -8069,19 +8070,19 @@
     </row>
     <row r="238" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
         <v>6</v>
       </c>
-      <c r="B238" t="s">
+      <c r="D238" t="s">
         <v>7</v>
       </c>
-      <c r="C238" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" t="s">
-        <v>9</v>
-      </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G238" s="3">
         <v>1.3339814814814814</v>
@@ -8092,19 +8093,19 @@
     </row>
     <row r="239" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B239" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C239" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G239" s="3">
         <v>1.3339814814814814</v>
@@ -8115,19 +8116,19 @@
     </row>
     <row r="240" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B240" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C240" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G240" s="3">
         <v>1.3339814814814814</v>
@@ -8138,19 +8139,19 @@
     </row>
     <row r="241" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" t="s">
+      <c r="D241" t="s">
         <v>12</v>
       </c>
-      <c r="C241" t="s">
-        <v>13</v>
-      </c>
-      <c r="D241" t="s">
-        <v>14</v>
-      </c>
       <c r="F241" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G241" s="3">
         <v>1.3339814814814814</v>
@@ -8167,19 +8168,19 @@
     </row>
     <row r="242" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B242" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C242" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G242" s="3">
         <v>1.3339814814814814</v>
@@ -8190,19 +8191,19 @@
     </row>
     <row r="243" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B243" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C243" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D243" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F243" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G243" s="3">
         <v>1.3339814814814814</v>
@@ -8213,19 +8214,19 @@
     </row>
     <row r="244" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B244" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C244" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D244" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F244" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G244" s="3">
         <v>1.3339814814814814</v>
@@ -8236,19 +8237,19 @@
     </row>
     <row r="245" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B245" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C245" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D245" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G245" s="3">
         <v>1.3339814814814814</v>
@@ -8259,19 +8260,19 @@
     </row>
     <row r="246" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" t="s">
         <v>38</v>
       </c>
-      <c r="B246" t="s">
+      <c r="D246" t="s">
         <v>39</v>
       </c>
-      <c r="C246" t="s">
-        <v>40</v>
-      </c>
-      <c r="D246" t="s">
-        <v>41</v>
-      </c>
       <c r="F246" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G246" s="3">
         <v>1.3339814814814814</v>
@@ -8282,19 +8283,19 @@
     </row>
     <row r="247" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B247" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C247" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D247" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F247" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G247" s="3">
         <v>1.3339814814814814</v>
@@ -8305,19 +8306,19 @@
     </row>
     <row r="248" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" t="s">
         <v>252</v>
       </c>
-      <c r="C248" t="s">
-        <v>253</v>
-      </c>
-      <c r="D248" t="s">
-        <v>254</v>
-      </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G248" s="3">
         <v>1.3339814814814814</v>
@@ -8328,19 +8329,19 @@
     </row>
     <row r="249" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B249" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C249" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D249" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F249" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G249" s="3">
         <v>1.3339814814814814</v>
@@ -8351,19 +8352,19 @@
     </row>
     <row r="250" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>380</v>
+      </c>
+      <c r="B250" t="s">
+        <v>381</v>
+      </c>
+      <c r="C250" t="s">
         <v>382</v>
       </c>
-      <c r="B250" t="s">
-        <v>383</v>
-      </c>
-      <c r="C250" t="s">
-        <v>384</v>
-      </c>
       <c r="D250" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G250" s="3">
         <v>1.3339814814814814</v>
@@ -8380,16 +8381,16 @@
     </row>
     <row r="251" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B251" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D251" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F251" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G251" s="3">
         <v>1.3339814814814814</v>
@@ -8400,19 +8401,19 @@
     </row>
     <row r="252" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B252" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C252" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G252" s="3">
         <v>1.3339814814814814</v>
@@ -8423,19 +8424,19 @@
     </row>
     <row r="253" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>226</v>
+      </c>
+      <c r="B253" t="s">
+        <v>227</v>
+      </c>
+      <c r="C253" t="s">
         <v>228</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D253" t="s">
         <v>229</v>
       </c>
-      <c r="C253" t="s">
-        <v>230</v>
-      </c>
-      <c r="D253" t="s">
-        <v>231</v>
-      </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G253" s="3">
         <v>1.3339814814814814</v>
@@ -8446,19 +8447,19 @@
     </row>
     <row r="254" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B254" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C254" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D254" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G254" s="3">
         <v>1.3339814814814814</v>
@@ -8469,19 +8470,19 @@
     </row>
     <row r="255" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255" t="s">
         <v>29</v>
       </c>
-      <c r="B255" t="s">
-        <v>30</v>
-      </c>
-      <c r="C255" t="s">
-        <v>31</v>
-      </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G255" s="3">
         <v>1.3339814814814814</v>
@@ -8492,19 +8493,19 @@
     </row>
     <row r="256" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>590</v>
+      </c>
+      <c r="B256" t="s">
+        <v>591</v>
+      </c>
+      <c r="C256" t="s">
         <v>592</v>
       </c>
-      <c r="B256" t="s">
-        <v>593</v>
-      </c>
-      <c r="C256" t="s">
-        <v>594</v>
-      </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G256" s="3">
         <v>1.3339814814814814</v>
@@ -8515,19 +8516,19 @@
     </row>
     <row r="257" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B257" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C257" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D257" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F257" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G257" s="3">
         <v>1.3339814814814814</v>
@@ -8538,19 +8539,19 @@
     </row>
     <row r="258" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B258" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C258" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F258" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G258" s="3">
         <v>1.3339814814814814</v>
@@ -8561,19 +8562,19 @@
     </row>
     <row r="259" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B259" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C259" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D259" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F259" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G259" s="3">
         <v>1.4589814814814814</v>
@@ -8584,19 +8585,19 @@
     </row>
     <row r="260" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C260" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D260" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F260" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G260" s="3">
         <v>1.3339814814814814</v>
@@ -8607,19 +8608,19 @@
     </row>
     <row r="261" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B261" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C261" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D261" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F261" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G261" s="3">
         <v>1.3339814814814814</v>
@@ -8630,19 +8631,19 @@
     </row>
     <row r="262" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B262" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C262" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F262" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G262" s="3">
         <v>1.3339814814814814</v>
@@ -8653,19 +8654,19 @@
     </row>
     <row r="263" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>403</v>
+      </c>
+      <c r="B263" t="s">
+        <v>404</v>
+      </c>
+      <c r="C263" t="s">
         <v>405</v>
       </c>
-      <c r="B263" t="s">
-        <v>406</v>
-      </c>
-      <c r="C263" t="s">
-        <v>407</v>
-      </c>
       <c r="D263" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F263" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G263" s="3">
         <v>1.3339814814814814</v>
@@ -8676,19 +8677,19 @@
     </row>
     <row r="264" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B264" t="s">
+        <v>46</v>
+      </c>
+      <c r="C264" t="s">
+        <v>47</v>
+      </c>
+      <c r="D264" t="s">
         <v>48</v>
       </c>
-      <c r="C264" t="s">
-        <v>49</v>
-      </c>
-      <c r="D264" t="s">
-        <v>50</v>
-      </c>
       <c r="F264" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G264" s="3">
         <v>1.3339814814814814</v>
@@ -8699,19 +8700,19 @@
     </row>
     <row r="265" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B265" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C265" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D265" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F265" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G265" s="3">
         <v>1.3339814814814814</v>
@@ -8728,19 +8729,19 @@
     </row>
     <row r="266" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B266" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C266" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D266" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F266" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G266" s="3">
         <v>1.3339814814814814</v>
@@ -8751,19 +8752,19 @@
     </row>
     <row r="267" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C267" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G267" s="3">
         <v>1.3339814814814814</v>
@@ -8774,19 +8775,19 @@
     </row>
     <row r="268" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B268" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C268" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D268" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F268" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G268" s="3">
         <v>1.3339814814814814</v>
@@ -8797,19 +8798,19 @@
     </row>
     <row r="269" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B269" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C269" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D269" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G269" s="3">
         <v>1.3339814814814814</v>
@@ -8820,19 +8821,19 @@
     </row>
     <row r="270" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B270" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C270" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D270" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F270" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G270" s="3">
         <v>1.3339814814814814</v>
@@ -8843,19 +8844,19 @@
     </row>
     <row r="271" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>318</v>
+      </c>
+      <c r="B271" t="s">
+        <v>319</v>
+      </c>
+      <c r="C271" t="s">
         <v>320</v>
       </c>
-      <c r="B271" t="s">
-        <v>321</v>
-      </c>
-      <c r="C271" t="s">
-        <v>322</v>
-      </c>
       <c r="D271" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F271" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G271" s="3">
         <v>1.3339814814814814</v>
@@ -8866,19 +8867,19 @@
     </row>
     <row r="272" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B272" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C272" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D272" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F272" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G272" s="3">
         <v>1.3339814814814814</v>
@@ -8889,19 +8890,19 @@
     </row>
     <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>420</v>
+      </c>
+      <c r="B273" t="s">
+        <v>421</v>
+      </c>
+      <c r="C273" t="s">
         <v>422</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>423</v>
       </c>
-      <c r="C273" t="s">
-        <v>424</v>
-      </c>
-      <c r="D273" t="s">
-        <v>425</v>
-      </c>
       <c r="F273" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G273" s="3">
         <v>1.3339814814814814</v>
@@ -8912,19 +8913,19 @@
     </row>
     <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B274" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C274" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D274" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F274" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G274" s="3">
         <v>1.3339814814814814</v>
@@ -8935,19 +8936,19 @@
     </row>
     <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B275" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C275" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D275" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F275" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G275" s="3">
         <v>1.3339814814814814</v>
@@ -8958,19 +8959,19 @@
     </row>
     <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C276" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D276" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F276" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G276" s="3">
         <v>1.3339814814814814</v>
@@ -8981,19 +8982,19 @@
     </row>
     <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B277" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C277" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D277" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F277" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G277" s="3">
         <v>1.3339814814814814</v>
@@ -9004,19 +9005,19 @@
     </row>
     <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B278" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C278" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D278" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F278" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G278" s="3">
         <v>1.3339814814814814</v>
@@ -9027,19 +9028,19 @@
     </row>
     <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B279" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C279" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D279" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F279" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G279" s="3">
         <v>1.3339814814814814</v>
@@ -9050,19 +9051,19 @@
     </row>
     <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B280" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C280" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D280" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F280" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G280" s="3">
         <v>1.3339814814814814</v>
@@ -9073,19 +9074,19 @@
     </row>
     <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B281" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C281" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G281" s="3">
         <v>1.3339814814814814</v>
@@ -9096,19 +9097,19 @@
     </row>
     <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B282" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C282" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F282" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G282" s="3">
         <v>1.3339814814814814</v>
@@ -9119,19 +9120,19 @@
     </row>
     <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B283" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C283" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D283" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G283" s="3">
         <v>1.3339814814814814</v>
@@ -9142,19 +9143,19 @@
     </row>
     <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>69</v>
+      </c>
+      <c r="B284" t="s">
+        <v>70</v>
+      </c>
+      <c r="C284" t="s">
         <v>71</v>
       </c>
-      <c r="B284" t="s">
-        <v>72</v>
-      </c>
-      <c r="C284" t="s">
-        <v>73</v>
-      </c>
       <c r="D284" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F284" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G284" s="3">
         <v>1.3339814814814814</v>
@@ -9165,19 +9166,19 @@
     </row>
     <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B285" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C285" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D285" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F285" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G285" s="3">
         <v>1.3339814814814814</v>
@@ -9188,19 +9189,19 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B286" t="s">
+        <v>461</v>
+      </c>
+      <c r="C286" t="s">
+        <v>462</v>
+      </c>
+      <c r="D286" t="s">
         <v>463</v>
       </c>
-      <c r="C286" t="s">
-        <v>464</v>
-      </c>
-      <c r="D286" t="s">
-        <v>465</v>
-      </c>
       <c r="F286" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G286" s="3">
         <v>1.3339814814814814</v>
@@ -9211,19 +9212,19 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B287" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C287" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D287" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F287" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G287" s="3">
         <v>1.3339814814814814</v>
@@ -9234,19 +9235,19 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B288" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C288" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D288" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F288" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G288" s="3">
         <v>1.3339814814814814</v>
@@ -9257,19 +9258,19 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B289" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C289" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D289" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F289" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G289" s="3">
         <v>1.3339814814814814</v>
@@ -9280,19 +9281,19 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B290" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C290" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D290" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F290" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G290" s="3">
         <v>1.3339814814814814</v>
